--- a/security/checklist_security-lab3.xlsx
+++ b/security/checklist_security-lab3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D4F32F-7A4C-4A02-A325-554C5016A2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40526CC3-34B7-4C4D-9474-607D0F727736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="710" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -149,49 +149,6 @@
       </rPr>
       <t xml:space="preserve">
 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Câu 3:
-- Màn hình update
-- Thiết lập giá trị name là: giá trị trong ngoặc  (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>　　　　　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">) (chỉ copy giá trị trong ngoặc , không bao gồm dấu ngoặc
-- Thiết lập giá trị mật khẩu là giá trị trong ngoặc (Aa12345!)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Không hợp lệ</t>
     </r>
   </si>
   <si>
@@ -485,6 +442,43 @@
   </si>
   <si>
     <t>NG</t>
+  </si>
+  <si>
+    <r>
+      <t>Câu 3:
+- Màn hình update
+- Thiết lập giá trị name là: giá trị trong ngoặc  (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>　　　　　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">) (chỉ copy giá trị trong ngoặc , không bao gồm dấu ngoặc
+- Thiết lập giá trị mật khẩu là giá trị trong ngoặc (Aa12345!)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Không hợp lệ</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1294,8 +1288,8 @@
   <dimension ref="A1:AE898"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD12" sqref="AD12"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1395,7 +1389,7 @@
       <c r="AC3" s="33"/>
       <c r="AD3" s="38" t="str">
         <f>"Point: "&amp;SUM(AD5:AD13)</f>
-        <v>Point: 7</v>
+        <v>Point: 8</v>
       </c>
       <c r="AE3" s="12"/>
     </row>
@@ -1474,17 +1468,17 @@
         <v>45566</v>
       </c>
       <c r="Y5" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z5" s="16" t="s">
         <v>32</v>
-      </c>
-      <c r="Z5" s="16" t="s">
-        <v>35</v>
       </c>
       <c r="AA5" s="16"/>
       <c r="AB5" s="16"/>
       <c r="AC5" s="16"/>
       <c r="AD5" s="17">
         <f>IF(Z5="OK",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE5" s="12"/>
     </row>
@@ -1520,10 +1514,10 @@
         <v>45566</v>
       </c>
       <c r="Y6" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z6" s="16" t="s">
         <v>32</v>
-      </c>
-      <c r="Z6" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="AA6" s="16"/>
       <c r="AB6" s="16"/>
@@ -1566,10 +1560,10 @@
         <v>45566</v>
       </c>
       <c r="Y7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z7" s="16" t="s">
         <v>32</v>
-      </c>
-      <c r="Z7" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="AA7" s="16"/>
       <c r="AB7" s="16"/>
@@ -1612,10 +1606,10 @@
         <v>45566</v>
       </c>
       <c r="Y8" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z8" s="16" t="s">
         <v>32</v>
-      </c>
-      <c r="Z8" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="AA8" s="16"/>
       <c r="AB8" s="16"/>
@@ -1631,7 +1625,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="35"/>
@@ -1654,13 +1648,13 @@
       <c r="V9" s="35"/>
       <c r="W9" s="35"/>
       <c r="X9" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y9" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z9" s="16" t="s">
         <v>32</v>
-      </c>
-      <c r="Z9" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="AA9" s="16"/>
       <c r="AB9" s="16"/>
@@ -1677,7 +1671,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
@@ -1703,10 +1697,10 @@
         <v>45566</v>
       </c>
       <c r="Y10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z10" s="16" t="s">
         <v>32</v>
-      </c>
-      <c r="Z10" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="AA10" s="16"/>
       <c r="AB10" s="16"/>
@@ -1723,7 +1717,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="35"/>
@@ -1749,10 +1743,10 @@
         <v>45566</v>
       </c>
       <c r="Y11" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z11" s="16" t="s">
         <v>32</v>
-      </c>
-      <c r="Z11" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="AA11" s="16"/>
       <c r="AB11" s="16"/>
@@ -1769,7 +1763,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="35"/>
@@ -1795,10 +1789,10 @@
         <v>45566</v>
       </c>
       <c r="Y12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z12" s="16" t="s">
         <v>32</v>
-      </c>
-      <c r="Z12" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="AA12" s="16"/>
       <c r="AB12" s="16"/>
@@ -1815,7 +1809,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="35"/>
@@ -1841,10 +1835,10 @@
         <v>45566</v>
       </c>
       <c r="Y13" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z13" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA13" s="16"/>
       <c r="AB13" s="16"/>
